--- a/Sexy Rodent/01 - PCB/BOM.xlsx
+++ b/Sexy Rodent/01 - PCB/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\01 - Altium\PCBs\Sexy Rodent\Project Outputs for Sexy Rodent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dev\101 - Products\Products\Sexy Rodent\01 - PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF9D86-E699-4638-A4A4-CB9F5559D9CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3765DE3D-6F49-4B8D-B3C3-3B184ED1562B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="221">
   <si>
     <t>Quantity</t>
   </si>
@@ -668,9 +668,6 @@
   </si>
   <si>
     <t>DC JACK</t>
-  </si>
-  <si>
-    <t>0.02</t>
   </si>
   <si>
     <t>LED holder</t>
@@ -1134,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1165,7 @@
         <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2273,14 +2270,14 @@
         <v>210</v>
       </c>
       <c r="E48" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>211</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,11 +2309,11 @@
         <v>1</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,7 +2339,7 @@
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E52" s="20">
         <v>1</v>
@@ -2360,13 +2357,13 @@
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E53" s="20">
         <v>4</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="0"/>
@@ -2378,13 +2375,13 @@
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="20">
         <v>2</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="0"/>
@@ -2396,23 +2393,23 @@
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E55" s="20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F55" s="19">
         <v>1</v>
       </c>
       <c r="G55" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G56" s="21">
         <f>SUM(G2:G55)</f>
-        <v>21.633700000000001</v>
+        <v>22.913699999999999</v>
       </c>
     </row>
   </sheetData>
